--- a/ru/downloads/data-excel/15.2.1.xlsx
+++ b/ru/downloads/data-excel/15.2.1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>Көрсөткүчтөрдүн аталышы</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>Percentage of forest area for which a long-term forest management plan exists, in percent</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -200,7 +203,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -247,6 +250,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -553,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,7 +575,7 @@
     <col min="6" max="8" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -586,7 +592,7 @@
       <c r="H1" s="4"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
       <c r="C2" s="8"/>
@@ -597,7 +603,7 @@
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -628,8 +634,17 @@
       <c r="J3" s="12">
         <v>2019</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K3" s="12">
+        <v>2020</v>
+      </c>
+      <c r="L3" s="12">
+        <v>2021</v>
+      </c>
+      <c r="M3" s="12">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>10</v>
       </c>
@@ -660,8 +675,17 @@
       <c r="J4" s="14">
         <v>412</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="24" x14ac:dyDescent="0.25">
+      <c r="K4" s="14">
+        <v>308</v>
+      </c>
+      <c r="L4" s="14">
+        <v>212.1</v>
+      </c>
+      <c r="M4" s="14">
+        <v>723.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="24" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>11</v>
       </c>
@@ -674,13 +698,33 @@
       <c r="D5" s="14">
         <v>26.7</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-    </row>
-    <row r="6" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="17"/>
+    </row>
+    <row r="6" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>12</v>
       </c>
@@ -708,8 +752,18 @@
       <c r="I6" s="14">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J6" s="14">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="K6" s="14">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="L6" s="14">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="M6" s="14"/>
+    </row>
+    <row r="7" spans="1:13" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>13</v>
       </c>
@@ -737,9 +791,20 @@
       <c r="I7" s="16">
         <v>82.6</v>
       </c>
-      <c r="J7" s="16"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J7" s="16">
+        <v>64</v>
+      </c>
+      <c r="K7" s="16">
+        <v>64</v>
+      </c>
+      <c r="L7" s="16">
+        <v>64</v>
+      </c>
+      <c r="M7" s="16">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -750,7 +815,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -761,7 +826,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -772,7 +837,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -783,7 +848,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -794,7 +859,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>

--- a/ru/downloads/data-excel/15.2.1.xlsx
+++ b/ru/downloads/data-excel/15.2.1.xlsx
@@ -559,11 +559,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -575,7 +573,7 @@
     <col min="6" max="8" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -592,7 +590,7 @@
       <c r="H1" s="4"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
       <c r="C2" s="8"/>
@@ -603,7 +601,7 @@
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -643,8 +641,11 @@
       <c r="M3" s="12">
         <v>2022</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N3" s="12">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>10</v>
       </c>
@@ -682,10 +683,13 @@
         <v>212.1</v>
       </c>
       <c r="M4" s="14">
-        <v>723.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+        <v>923.8</v>
+      </c>
+      <c r="N4" s="14">
+        <v>583.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>11</v>
       </c>
@@ -723,8 +727,9 @@
         <v>18</v>
       </c>
       <c r="M5" s="17"/>
-    </row>
-    <row r="6" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N5" s="17"/>
+    </row>
+    <row r="6" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>12</v>
       </c>
@@ -762,8 +767,9 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="M6" s="14"/>
-    </row>
-    <row r="7" spans="1:13" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N6" s="14"/>
+    </row>
+    <row r="7" spans="1:14" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>13</v>
       </c>
@@ -801,10 +807,13 @@
         <v>64</v>
       </c>
       <c r="M7" s="16">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>64.03</v>
+      </c>
+      <c r="N7" s="16">
+        <v>64.08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -815,7 +824,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -826,7 +835,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -837,7 +846,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -848,7 +857,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -859,7 +868,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
